--- a/EE-RD-006-01_Derating-Parameter-Decoding-Tables.xlsx
+++ b/EE-RD-006-01_Derating-Parameter-Decoding-Tables.xlsx
@@ -2,15 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\johnp\Documents\Projects\resume\portfolio\Derating\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BF00A0-8614-48DC-AFF0-F7404C88A06A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CABA822-1173-4A59-BE58-C7964ACA5DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{31EF0289-DA4D-43AE-8E1C-8B36B0F9C0FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{31EF0289-DA4D-43AE-8E1C-8B36B0F9C0FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="25" r:id="rId1"/>
@@ -1252,7 +1247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E5B8E9B-26B2-4325-A938-F2333CBCC0F1}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -1344,8 +1339,6 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
-    <row r="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
@@ -1356,6 +1349,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1662,6 +1656,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1968,6 +1963,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2274,6 +2270,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2887,6 +2884,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3193,6 +3191,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3499,6 +3498,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3805,6 +3805,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4111,6 +4112,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4417,6 +4419,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5031,6 +5034,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5337,6 +5341,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5643,6 +5648,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5937,6 +5943,7 @@
     <mergeCell ref="A18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6219,6 +6226,7 @@
     <mergeCell ref="A18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6832,6 +6840,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7138,6 +7147,7 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7444,5 +7454,6 @@
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>